--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,02%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>54,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>52,0%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,44%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>47,68%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>27,25%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,26%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>48,04%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,38%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>59,27%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>52,15%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>34,83%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>48,03%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>27,1%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>48,75%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,37%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -682,32 +682,32 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>16454</v>
+        <v>14839</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>34</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>21183</v>
+        <v>19112</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -717,28 +717,28 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>52</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>37637</v>
+        <v>33951</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>22005</v>
+        <v>20487</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>24</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>13919</v>
+        <v>12386</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>47</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>35923</v>
+        <v>32873</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>306</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>226192</v>
+        <v>213899</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>522</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>289026</v>
+        <v>263009</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>828</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>515218</v>
+        <v>476907</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,15%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>340</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>273202</v>
+        <v>262206</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>840</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>504938</v>
+        <v>455086</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,8%</t>
+          <t>63,65%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>1180</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>778139</v>
+        <v>717292</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>59,14%</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>687</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>537853</v>
+        <v>511431</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>1420</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>829066</v>
+        <v>749593</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>2107</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1366918</v>
+        <v>1261024</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
@@ -1041,63 +1041,63 @@
         <v>203</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>275765</v>
+        <v>269786</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>177</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>145657</v>
+        <v>131124</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
         <v>380</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>421423</v>
+        <v>400910</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -1112,63 +1112,63 @@
         <v>220</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>291531</v>
+        <v>289444</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>151</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>132838</v>
+        <v>120287</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>371</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>424369</v>
+        <v>409731</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,69%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>907</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>924627</v>
+        <v>1078408</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>47,18%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>1528</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1179067</v>
+        <v>1227975</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>67,04%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>2435</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2103694</v>
+        <v>2306382</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>59,77%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>658</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>665019</v>
+        <v>647976</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>1061</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>789412</v>
+        <v>756204</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>1719</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1454431</v>
+        <v>1404179</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,71%</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>1988</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2156942</v>
+        <v>2285614</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>2917</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>2246974</v>
+        <v>2235589</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>4905</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4403916</v>
+        <v>4521202</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>110</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>121690</v>
+        <v>116891</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -1409,23 +1409,23 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>118</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>94951</v>
+        <v>87988</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1435,28 +1435,28 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>228</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>216641</v>
+        <v>204879</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,78%</t>
         </is>
       </c>
     </row>
@@ -1471,63 +1471,63 @@
         <v>96</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>108731</v>
+        <v>103585</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>91295</v>
+        <v>84401</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
         <v>200</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>200026</v>
+        <v>187986</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,69%</t>
         </is>
       </c>
     </row>
@@ -1542,63 +1542,63 @@
         <v>318</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>283980</v>
+        <v>273903</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>520</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>342102</v>
+        <v>315042</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>44,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>838</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>626082</v>
+        <v>588945</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>48,16%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>156</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>157519</v>
+        <v>151195</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>261</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>185136</v>
+        <v>172655</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>417</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>342655</v>
+        <v>323851</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>27,19%</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>671920</v>
+        <v>645574</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>1003</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>713484</v>
+        <v>660086</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>1683</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1385404</v>
+        <v>1305660</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1759,63 +1759,63 @@
         <v>331</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>413909</v>
+        <v>401516</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>329</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>261791</v>
+        <v>238224</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>660</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>675701</v>
+        <v>639739</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1830,63 +1830,63 @@
         <v>339</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>422266</v>
+        <v>413516</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>279</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>238051</v>
+        <v>217074</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>618</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>660318</v>
+        <v>630590</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -1901,63 +1901,63 @@
         <v>1531</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1434799</v>
+        <v>1566209</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>59,56%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>2570</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>1810196</v>
+        <v>1806025</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
         <v>4101</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3244994</v>
+        <v>3372234</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>54,83%</t>
         </is>
       </c>
     </row>
@@ -1972,63 +1972,63 @@
         <v>1154</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1095740</v>
+        <v>1061378</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>2162</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1479486</v>
+        <v>1383945</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>3316</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2575225</v>
+        <v>2445323</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>3355</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3366714</v>
+        <v>3442618</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>5340</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>3789524</v>
+        <v>3645268</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>8695</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7156238</v>
+        <v>7087886</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>14839</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14839</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>8688</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22766</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,9%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>19112</v>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19112</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13443</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26349</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>2,55%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>33951</v>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>33951</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>25368</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>43435</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>2,69%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>20487</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20487</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>13063</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31846</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>4,01%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>12386</v>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12386</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7934</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18106</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>1,65%</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>32873</v>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>32873</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>23148</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>44231</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>2,61%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>306</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>213899</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>213899</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>192793</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>233134</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>41,82%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,91%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>45,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>522</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>263009</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,58%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>263009</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>241970</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>281717</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>35,09%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>32,41%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>37,45%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>828</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>476907</v>
-      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>476907</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>451753</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>507874</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>37,82%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>35,63%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>40,15%</t>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>35,82%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>40,27%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>262206</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>157723</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>138665</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>179252</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>840</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>455086</v>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27,11%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35,05%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>540</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>297621</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>1180</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>717292</v>
+          <t>277686</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>319646</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>455344</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>427930</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>485103</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>33,94%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
         </is>
       </c>
     </row>
@@ -959,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>687</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>511431</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104483</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86129</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>122395</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1420</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>749593</v>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>157465</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>2107</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>1261024</v>
+          <t>142660</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>176284</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>261948</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>238140</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>291069</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>269786</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>511431</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>511431</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>511431</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>131124</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>749593</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>380</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>400910</v>
+          <t>749593</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>749593</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1261024</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1261024</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1261024</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>289444</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>269786</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>185742</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>319415</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>120287</v>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>131124</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>371</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>409731</v>
+          <t>96010</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>157421</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>400910</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>323677</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>468666</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>907</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1078408</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>289444</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>190543</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>346334</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,2%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1528</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1227975</v>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>120287</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>2435</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>2306382</v>
+          <t>88013</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>150632</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>409731</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>337199</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>479899</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>647976</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1078408</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>920213</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>1462893</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1061</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>756204</v>
+          <t>47,18%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64,0%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>1227975</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1719</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1404179</v>
+          <t>1089331</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1488397</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54,93%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>2435</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2306382</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2055153</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2729122</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>45,46%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>60,36%</t>
         </is>
       </c>
     </row>
@@ -1318,145 +1744,225 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>2285614</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>345398</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>233882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>403912</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2917</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2235589</v>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>536</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>383138</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>4905</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>4521202</v>
+          <t>288778</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>466825</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>728536</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>596535</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>837405</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>116891</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>302578</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>206632</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>355037</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>87988</v>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>525</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>373066</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>204879</v>
+          <t>273970</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>433226</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>675643</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>536903</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>764114</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -1464,141 +1970,229 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>103585</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2285614</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>2285614</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>2285614</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>84401</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>2917</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>2235589</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>187986</v>
+          <t>2235589</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2235589</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>4905</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4521202</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4521202</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4521202</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>273903</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>116891</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>97365</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>140657</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>315042</v>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>87988</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>838</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>588945</v>
+          <t>74129</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>105734</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>204879</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>177380</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>232943</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>151195</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>103585</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>83879</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>128030</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>172655</v>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>84401</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>417</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>323851</v>
+          <t>69175</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>103183</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>187986</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>162596</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>217754</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -1677,145 +2313,225 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>680</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>645574</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>273903</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>247532</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>301916</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>660086</v>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46,77%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>520</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>315042</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1683</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1305660</v>
+          <t>291377</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>337054</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47,73%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>588945</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>555538</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>622897</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>47,71%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>401516</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>98367</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>78204</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>117667</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>329</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>238224</v>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>72911</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>660</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>639739</v>
+          <t>59740</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>89165</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>171278</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>147315</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>196793</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
         </is>
       </c>
     </row>
@@ -1823,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>339</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>413516</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>52828</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>40938</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>69956</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>217074</v>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>99745</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>618</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>630590</v>
+          <t>83511</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>115597</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>152573</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>131911</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>174674</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -1894,141 +2652,229 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1531</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>1566209</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>645574</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>645574</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>645574</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>59,56%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2570</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1806025</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>660086</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>4101</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>3372234</v>
+          <t>660086</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>660086</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1305660</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1305660</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1305660</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>1154</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1061378</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>401516</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>313705</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>459631</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2162</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1383945</v>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>238224</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>3316</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>2445323</v>
+          <t>194518</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>274294</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>639739</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>548991</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>712724</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -2036,75 +2882,569 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>3355</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>3442618</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>413516</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>315806</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>473915</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>5340</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>3645268</v>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13,77%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>217074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>8695</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>7087886</v>
+          <t>174673</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>250650</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>630590</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>543536</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>706003</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1566209</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1402165</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2041600</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40,73%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>59,3%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1806025</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1661462</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2122719</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>49,54%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>45,58%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>3372234</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>3108346</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3885098</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>47,58%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>43,85%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>54,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>601489</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>475678</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>667306</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>753670</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>627535</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>842177</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>1355158</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>1168178</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>1475427</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>459889</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>362493</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>514800</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>630275</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>529770</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>693375</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1090164</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>933711</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>1181212</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3442618</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3442618</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3442618</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3645268</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3645268</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3645268</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>8695</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>7087886</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>7087886</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>7087886</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2112,14 +3452,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
